--- a/Clase 4/Ejercicio8.xlsx
+++ b/Clase 4/Ejercicio8.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -156,13 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,86 +503,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="5">
         <v>0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="5">
         <v>1</v>
       </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="G1" s="5">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5">
         <v>3</v>
       </c>
-      <c r="I1" s="1">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="I1" s="5">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5">
         <v>5</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="5">
         <v>6</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="5">
         <v>7</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="5">
         <v>8</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="5">
         <v>9</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="5">
         <v>10</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="5">
         <v>11</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="5">
         <v>12</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="5">
         <v>13</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="5">
         <v>14</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="5">
         <v>15</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="5">
         <v>16</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="5">
         <v>17</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="5">
         <v>18</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="5">
         <v>19</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="5">
         <v>20</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -818,15 +841,15 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
@@ -858,41 +881,43 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
